--- a/INVENTARIOS/08-07-2022/36-DAVID_BOJAKSON.xlsx
+++ b/INVENTARIOS/08-07-2022/36-DAVID_BOJAKSON.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABDALLA\Desktop\INVENTARIOS\08-07-2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685F458B-D6E8-47E9-8C8F-1DEFD8EB2DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F73E5E1-F758-4AD3-BBA5-766EB4CA1A21}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -27,395 +22,414 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="126">
   <si>
-    <t>CO_ART</t>
-  </si>
-  <si>
-    <t>ART_DES</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>GENERAL</t>
+    <t xml:space="preserve">CO_ART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART_DES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENERAL</t>
   </si>
   <si>
     <t xml:space="preserve">SUB CAT </t>
   </si>
   <si>
-    <t>LIN</t>
-  </si>
-  <si>
-    <t>SUB-LIN</t>
-  </si>
-  <si>
-    <t>MODELO</t>
-  </si>
-  <si>
-    <t>COLOR</t>
-  </si>
-  <si>
-    <t>TALLA</t>
-  </si>
-  <si>
-    <t>MARCA</t>
-  </si>
-  <si>
-    <t>NUM-REG</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>CANT UNI_BULTO</t>
-  </si>
-  <si>
-    <t>TOT-BULTOS</t>
-  </si>
-  <si>
-    <t>UNI-BLTOS</t>
-  </si>
-  <si>
-    <t>TOT-UNI</t>
-  </si>
-  <si>
-    <t>FALTANTES</t>
-  </si>
-  <si>
-    <t>NOTA</t>
-  </si>
-  <si>
-    <t>PRECIO COSTO</t>
-  </si>
-  <si>
-    <t>PRECIO VENTA</t>
-  </si>
-  <si>
-    <t>CO_SENCAMER</t>
-  </si>
-  <si>
-    <t>IVA</t>
-  </si>
-  <si>
-    <t>RIF_LIMPIO</t>
-  </si>
-  <si>
-    <t>ID_USER</t>
-  </si>
-  <si>
-    <t>NVB40M602-10001</t>
-  </si>
-  <si>
-    <t>BOTIN NIKE BO JACKSON VERDE BLANCO</t>
-  </si>
-  <si>
-    <t>0005700003577CI11</t>
-  </si>
-  <si>
-    <t>25998807</t>
-  </si>
-  <si>
-    <t>M602</t>
-  </si>
-  <si>
-    <t>NVB41M602-10001</t>
+    <t xml:space="preserve">LIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB-LIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODELO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM-REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANT UNI_BULTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOT-BULTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNI-BLTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOT-UNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALTANTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECIO COSTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECIO VENTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO_SENCAMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIF_LIMPIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVB40M602-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTIN NIKE BO JACKSON VERDE BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0005700003577CI11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25998807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVB41M602-10001</t>
   </si>
   <si>
     <t xml:space="preserve">NVB42M602-10001    </t>
   </si>
   <si>
-    <t>NVB43M602-10001</t>
-  </si>
-  <si>
-    <t>NVB44M602-10001</t>
-  </si>
-  <si>
-    <t>NVB45M602-10001</t>
-  </si>
-  <si>
-    <t>NBA40M602-20002</t>
-  </si>
-  <si>
-    <t>BOTIN NIKE BO JACKSON BLANCO AZUL</t>
-  </si>
-  <si>
-    <t>NBA41M602-20002</t>
-  </si>
-  <si>
-    <t>NBA42M602-20002</t>
-  </si>
-  <si>
-    <t>NBA43M602-20002</t>
-  </si>
-  <si>
-    <t>NBA44M602-20002</t>
-  </si>
-  <si>
-    <t>NBA45M602-20002</t>
-  </si>
-  <si>
-    <t>NBB40M602-30003</t>
-  </si>
-  <si>
-    <t>BOTIN NIKE BO JACKSON BLANCO BEIGE</t>
-  </si>
-  <si>
-    <t>NBB41M602-30003</t>
-  </si>
-  <si>
-    <t>NBB42M602-30003</t>
-  </si>
-  <si>
-    <t>NBB43M602-30003</t>
-  </si>
-  <si>
-    <t>NBB44M602-30003</t>
-  </si>
-  <si>
-    <t>NBB45M602-30003</t>
-  </si>
-  <si>
-    <t>NBN40M602-40004</t>
-  </si>
-  <si>
-    <t>BOTIN NIKE BO JACKSON BLANCO NEGRO</t>
-  </si>
-  <si>
-    <t>NBN41M602-40004</t>
-  </si>
-  <si>
-    <t>NBN42M602-40004</t>
-  </si>
-  <si>
-    <t>NBN43M602-40004</t>
-  </si>
-  <si>
-    <t>NBN44M602-40004</t>
-  </si>
-  <si>
-    <t>NBN45M602-40004</t>
-  </si>
-  <si>
-    <t>NNB40M602-60006</t>
-  </si>
-  <si>
-    <t>BOTIN NIKE BO JACKSON NEGRO BLANCO</t>
-  </si>
-  <si>
-    <t>NNB41M602-60006</t>
-  </si>
-  <si>
-    <t>NNB42M602-60006</t>
-  </si>
-  <si>
-    <t>NNB43M602-60006</t>
-  </si>
-  <si>
-    <t>NNB44M602-60006</t>
-  </si>
-  <si>
-    <t>NNB45M602-60006</t>
-  </si>
-  <si>
-    <t>NNA40M602-70007</t>
-  </si>
-  <si>
-    <t>BOTIN NIKE BO JACKSON NEGRO AZUL</t>
-  </si>
-  <si>
-    <t>NNA41M602-70007</t>
-  </si>
-  <si>
-    <t>NNA42M602-70007</t>
-  </si>
-  <si>
-    <t>NNA43M602-70007</t>
-  </si>
-  <si>
-    <t>NNA44M602-70007</t>
-  </si>
-  <si>
-    <t>NNA45M602-70007</t>
-  </si>
-  <si>
-    <t>NGN40M602-80008</t>
-  </si>
-  <si>
-    <t>BOTIN NIKE BO JACKSON GRIS NEGRO</t>
-  </si>
-  <si>
-    <t>NGN41M602-80008</t>
-  </si>
-  <si>
-    <t>NGN42M602-80008</t>
-  </si>
-  <si>
-    <t>NGN43M602-80008</t>
-  </si>
-  <si>
-    <t>NGN44M602-80008</t>
-  </si>
-  <si>
-    <t>NGN45M602-80008</t>
-  </si>
-  <si>
-    <t>NDC45AD3-10410</t>
-  </si>
-  <si>
-    <t>JNR40MJ810-10001</t>
+    <t xml:space="preserve">NVB43M602-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVB44M602-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVB45M602-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBA40M602-20002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTIN NIKE BO JACKSON BLANCO AZUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBA41M602-20002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBA42M602-20002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBA43M602-20002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBA44M602-20002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBA45M602-20002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBB40M602-30003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTIN NIKE BO JACKSON BLANCO BEIGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBB41M602-30003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBB42M602-30003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBB43M602-30003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBB44M602-30003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBB45M602-30003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBN40M602-40004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTIN NIKE BO JACKSON BLANCO NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBN41M602-40004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBN42M602-40004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBN43M602-40004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBN44M602-40004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBN45M602-40004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNB40M602-60006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTIN NIKE BO JACKSON NEGRO BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNB41M602-60006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNB42M602-60006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNB43M602-60006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNB44M602-60006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNB45M602-60006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNA40M602-70007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTIN NIKE BO JACKSON NEGRO AZUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNA41M602-70007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNA42M602-70007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNA43M602-70007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNA44M602-70007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNA45M602-70007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGN40M602-80008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTIN NIKE BO JACKSON GRIS NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGN41M602-80008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGN42M602-80008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGN43M602-80008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGN44M602-80008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGN45M602-80008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNR40MJ810-10001</t>
   </si>
   <si>
     <t xml:space="preserve">BOTIN JORDAN RETRO 7 NEGRO ROJO </t>
   </si>
   <si>
-    <t>MJ810</t>
-  </si>
-  <si>
-    <t>JNR41MJ810-10001</t>
-  </si>
-  <si>
-    <t>JNR42MJ810-10001</t>
-  </si>
-  <si>
-    <t>JNR43MJ810-10001</t>
-  </si>
-  <si>
-    <t>JNR44MJ810-10001</t>
-  </si>
-  <si>
-    <t>JNR45MJ810-10001</t>
-  </si>
-  <si>
-    <t>JNR40MJ811-10001</t>
-  </si>
-  <si>
-    <t>BOTIN JORDAN RETRO 8 NEGRO ROJO</t>
-  </si>
-  <si>
-    <t>MJ811</t>
-  </si>
-  <si>
-    <t>JNR41MJ811-10001</t>
-  </si>
-  <si>
-    <t>JNR42MJ811-10001</t>
-  </si>
-  <si>
-    <t>JNR43MJ811-10001</t>
-  </si>
-  <si>
-    <t>JNR44MJ811-10001</t>
-  </si>
-  <si>
-    <t>JNR45MJ811-10001</t>
-  </si>
-  <si>
-    <t>JBN40M813-10001</t>
-  </si>
-  <si>
-    <t>BOTIN JORDAN RETRO 3 BLANCO NEGRO</t>
-  </si>
-  <si>
-    <t>M813</t>
-  </si>
-  <si>
-    <t>JBN41M813-10001</t>
-  </si>
-  <si>
-    <t>JBN42M813-10001</t>
-  </si>
-  <si>
-    <t>JBN43M813-10001</t>
-  </si>
-  <si>
-    <t>JBN44M813-10001</t>
-  </si>
-  <si>
-    <t>JBN45M813-10001</t>
-  </si>
-  <si>
-    <t>JBG40M813-30003</t>
-  </si>
-  <si>
-    <t>BOTIN JORDAN RETRO 3 BLANCO GRIS</t>
-  </si>
-  <si>
-    <t>JBG41M813-30003</t>
-  </si>
-  <si>
-    <t>JBG42M813-30003</t>
-  </si>
-  <si>
-    <t>JBG43M813-30003</t>
-  </si>
-  <si>
-    <t>JBG44M813-30003</t>
-  </si>
-  <si>
-    <t>JBG45M813-30003</t>
-  </si>
-  <si>
-    <t>NAB35AD4-10422</t>
-  </si>
-  <si>
-    <t>ZAPATO NIKE AIR FORCE ONE BLANCO CAMALEON</t>
-  </si>
-  <si>
-    <t>AD4</t>
-  </si>
-  <si>
-    <t>NAB36AD4-10422</t>
-  </si>
-  <si>
-    <t>NAB37AD4-10422</t>
-  </si>
-  <si>
-    <t>NAB38AD4-10422</t>
-  </si>
-  <si>
-    <t>NAB39AD4-10422</t>
-  </si>
-  <si>
-    <t>NAB40AD4-10422</t>
-  </si>
-  <si>
-    <t>NDC39AD3-10410</t>
-  </si>
-  <si>
-    <t>ZAPATO NIKE DUNK CAMALEON</t>
-  </si>
-  <si>
-    <t>AD3</t>
-  </si>
-  <si>
-    <t>NDC40AD3-10410</t>
-  </si>
-  <si>
-    <t>NDC41AD3-10410</t>
-  </si>
-  <si>
-    <t>NDC42AD3-10410</t>
-  </si>
-  <si>
-    <t>NDCA43D3-10410</t>
-  </si>
-  <si>
-    <t>NDC44AD3-10410</t>
-  </si>
-  <si>
-    <t>301</t>
+    <t xml:space="preserve">MJ810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNR41MJ810-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNR42MJ810-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNR43MJ810-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNR44MJ810-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNR45MJ810-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNR40MJ811-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTIN JORDAN RETRO 8 NEGRO ROJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MJ811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNR41MJ811-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNR42MJ811-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNR43MJ811-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNR44MJ811-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNR45MJ811-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBN40M813-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTIN JORDAN RETRO 3 BLANCO NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBN41M813-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBN42M813-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBN43M813-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBN44M813-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBN45M813-10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBG40M813-30003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTIN JORDAN RETRO 3 BLANCO GRIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBG41M813-30003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBG42M813-30003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBG43M813-30003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBG44M813-30003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBG45M813-30003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAB35AD4-10422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAPATO NIKE AIR FORCE ONE BLANCO CAMALEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAB36AD4-10422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAB37AD4-10422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAB38AD4-10422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAB39AD4-10422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAB40AD4-10422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDC39AD3-10410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAPATO NIKE DUNK CAMALEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDC40AD3-10410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDC41AD3-10410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDC42AD3-10410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDCA43D3-10410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDC44AD3-10410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDC45AD3-10410</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -427,7 +441,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -435,342 +449,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C71236C-A627-41D8-A5DC-59EAE448F565}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B63" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G69" activeCellId="0" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,43 +596,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>402</v>
-      </c>
-      <c r="E2" s="1">
-        <v>201</v>
-      </c>
-      <c r="F2" s="1">
-        <v>301</v>
-      </c>
-      <c r="G2" s="1">
-        <v>502</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="1" t="n">
         <v>7331</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1">
+      <c r="N2" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O2" s="1"/>
@@ -894,65 +640,65 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="1">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1">
+      <c r="T2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>402</v>
-      </c>
-      <c r="E3" s="1">
-        <v>201</v>
-      </c>
-      <c r="F3" s="1">
-        <v>301</v>
-      </c>
-      <c r="G3" s="1">
-        <v>502</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="1" t="n">
         <v>7331</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1">
+      <c r="N3" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O3" s="1"/>
@@ -960,65 +706,65 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>402</v>
-      </c>
-      <c r="E4" s="1">
-        <v>201</v>
-      </c>
-      <c r="F4" s="1">
-        <v>301</v>
-      </c>
-      <c r="G4" s="1">
-        <v>502</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H4" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="1" t="n">
         <v>7331</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1">
+      <c r="N4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O4" s="1"/>
@@ -1026,65 +772,65 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
+      <c r="T4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>402</v>
-      </c>
-      <c r="E5" s="1">
-        <v>201</v>
-      </c>
-      <c r="F5" s="1">
-        <v>301</v>
-      </c>
-      <c r="G5" s="1">
-        <v>502</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="1" t="n">
         <v>7331</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1">
+      <c r="N5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O5" s="1"/>
@@ -1092,65 +838,65 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1">
+      <c r="T5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>402</v>
-      </c>
-      <c r="E6" s="1">
-        <v>201</v>
-      </c>
-      <c r="F6" s="1">
-        <v>301</v>
-      </c>
-      <c r="G6" s="1">
-        <v>502</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H6" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="1" t="n">
         <v>7331</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1">
+      <c r="N6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O6" s="1"/>
@@ -1158,65 +904,65 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="1">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1">
+      <c r="T6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>402</v>
-      </c>
-      <c r="E7" s="1">
-        <v>201</v>
-      </c>
-      <c r="F7" s="1">
-        <v>301</v>
-      </c>
-      <c r="G7" s="1">
-        <v>502</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="1" t="n">
         <v>7331</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1">
+      <c r="N7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O7" s="1"/>
@@ -1224,65 +970,65 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1">
+      <c r="T7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>402</v>
-      </c>
-      <c r="E8" s="1">
-        <v>201</v>
-      </c>
-      <c r="F8" s="1">
-        <v>301</v>
-      </c>
-      <c r="G8" s="1">
-        <v>502</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="C8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H8" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="1" t="n">
         <v>7002</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1">
+      <c r="N8" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O8" s="1"/>
@@ -1290,65 +1036,65 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1">
-        <v>1</v>
-      </c>
-      <c r="U8" s="1">
+      <c r="T8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>402</v>
-      </c>
-      <c r="E9" s="1">
-        <v>201</v>
-      </c>
-      <c r="F9" s="1">
-        <v>301</v>
-      </c>
-      <c r="G9" s="1">
-        <v>502</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H9" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="1" t="n">
         <v>7002</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1">
+      <c r="N9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O9" s="1"/>
@@ -1356,65 +1102,65 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1">
-        <v>1</v>
-      </c>
-      <c r="U9" s="1">
+      <c r="T9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>402</v>
-      </c>
-      <c r="E10" s="1">
-        <v>201</v>
-      </c>
-      <c r="F10" s="1">
-        <v>301</v>
-      </c>
-      <c r="G10" s="1">
-        <v>502</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H10" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="1" t="n">
         <v>7002</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1">
+      <c r="N10" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O10" s="1"/>
@@ -1422,65 +1168,65 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1">
-        <v>1</v>
-      </c>
-      <c r="U10" s="1">
+      <c r="T10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>402</v>
-      </c>
-      <c r="E11" s="1">
-        <v>201</v>
-      </c>
-      <c r="F11" s="1">
-        <v>301</v>
-      </c>
-      <c r="G11" s="1">
-        <v>502</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H11" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="1" t="n">
         <v>7002</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1">
+      <c r="N11" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O11" s="1"/>
@@ -1488,65 +1234,65 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1">
-        <v>1</v>
-      </c>
-      <c r="U11" s="1">
+      <c r="T11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>402</v>
-      </c>
-      <c r="E12" s="1">
-        <v>201</v>
-      </c>
-      <c r="F12" s="1">
-        <v>301</v>
-      </c>
-      <c r="G12" s="1">
-        <v>502</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="C12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H12" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="1" t="n">
         <v>7002</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1">
+      <c r="N12" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O12" s="1"/>
@@ -1554,65 +1300,65 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1">
-        <v>1</v>
-      </c>
-      <c r="U12" s="1">
+      <c r="T12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>402</v>
-      </c>
-      <c r="E13" s="1">
-        <v>201</v>
-      </c>
-      <c r="F13" s="1">
-        <v>301</v>
-      </c>
-      <c r="G13" s="1">
-        <v>502</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H13" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="1" t="n">
         <v>7002</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1">
+      <c r="N13" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O13" s="1"/>
@@ -1620,65 +1366,65 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="1">
-        <v>1</v>
-      </c>
-      <c r="U13" s="1">
+      <c r="T13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y13" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>402</v>
-      </c>
-      <c r="E14" s="1">
-        <v>201</v>
-      </c>
-      <c r="F14" s="1">
-        <v>301</v>
-      </c>
-      <c r="G14" s="1">
-        <v>502</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H14" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="1" t="n">
         <v>7332</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1">
+      <c r="N14" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O14" s="1"/>
@@ -1686,65 +1432,65 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="1">
-        <v>1</v>
-      </c>
-      <c r="U14" s="1">
+      <c r="T14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>402</v>
-      </c>
-      <c r="E15" s="1">
-        <v>201</v>
-      </c>
-      <c r="F15" s="1">
-        <v>301</v>
-      </c>
-      <c r="G15" s="1">
-        <v>502</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H15" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="1" t="n">
         <v>7332</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1">
+      <c r="N15" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O15" s="1"/>
@@ -1752,65 +1498,65 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="1">
-        <v>1</v>
-      </c>
-      <c r="U15" s="1">
+      <c r="T15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>402</v>
-      </c>
-      <c r="E16" s="1">
-        <v>201</v>
-      </c>
-      <c r="F16" s="1">
-        <v>301</v>
-      </c>
-      <c r="G16" s="1">
-        <v>502</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H16" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="1" t="n">
         <v>7332</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1">
+      <c r="N16" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O16" s="1"/>
@@ -1818,65 +1564,65 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="1">
-        <v>1</v>
-      </c>
-      <c r="U16" s="1">
+      <c r="T16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>402</v>
-      </c>
-      <c r="E17" s="1">
-        <v>201</v>
-      </c>
-      <c r="F17" s="1">
-        <v>301</v>
-      </c>
-      <c r="G17" s="1">
-        <v>502</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H17" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="1" t="n">
         <v>7332</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1">
+      <c r="N17" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O17" s="1"/>
@@ -1884,65 +1630,65 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="1">
-        <v>1</v>
-      </c>
-      <c r="U17" s="1">
+      <c r="T17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>402</v>
-      </c>
-      <c r="E18" s="1">
-        <v>201</v>
-      </c>
-      <c r="F18" s="1">
-        <v>301</v>
-      </c>
-      <c r="G18" s="1">
-        <v>502</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H18" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="1" t="n">
         <v>7332</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1">
+      <c r="N18" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O18" s="1"/>
@@ -1950,65 +1696,65 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="1">
-        <v>1</v>
-      </c>
-      <c r="U18" s="1">
+      <c r="T18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y18" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>402</v>
-      </c>
-      <c r="E19" s="1">
-        <v>201</v>
-      </c>
-      <c r="F19" s="1">
-        <v>301</v>
-      </c>
-      <c r="G19" s="1">
-        <v>502</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H19" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="1" t="n">
         <v>7332</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1">
+      <c r="N19" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O19" s="1"/>
@@ -2016,65 +1762,65 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="1">
-        <v>1</v>
-      </c>
-      <c r="U19" s="1">
+      <c r="T19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y19" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>402</v>
-      </c>
-      <c r="E20" s="1">
-        <v>201</v>
-      </c>
-      <c r="F20" s="1">
-        <v>301</v>
-      </c>
-      <c r="G20" s="1">
-        <v>502</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H20" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="1" t="n">
         <v>7047</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1">
+      <c r="N20" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O20" s="1"/>
@@ -2082,65 +1828,65 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="1">
-        <v>1</v>
-      </c>
-      <c r="U20" s="1">
+      <c r="T20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>402</v>
-      </c>
-      <c r="E21" s="1">
-        <v>201</v>
-      </c>
-      <c r="F21" s="1">
-        <v>301</v>
-      </c>
-      <c r="G21" s="1">
-        <v>502</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="C21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H21" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="1" t="n">
         <v>7047</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1">
+      <c r="N21" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O21" s="1"/>
@@ -2148,65 +1894,65 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="1">
-        <v>1</v>
-      </c>
-      <c r="U21" s="1">
+      <c r="T21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>402</v>
-      </c>
-      <c r="E22" s="1">
-        <v>201</v>
-      </c>
-      <c r="F22" s="1">
-        <v>301</v>
-      </c>
-      <c r="G22" s="1">
-        <v>502</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="C22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H22" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="1" t="n">
         <v>7047</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1">
+      <c r="N22" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O22" s="1"/>
@@ -2214,65 +1960,65 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="1">
-        <v>1</v>
-      </c>
-      <c r="U22" s="1">
+      <c r="T22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Y22" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>402</v>
-      </c>
-      <c r="E23" s="1">
-        <v>201</v>
-      </c>
-      <c r="F23" s="1">
-        <v>301</v>
-      </c>
-      <c r="G23" s="1">
-        <v>502</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="C23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H23" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="1" t="n">
         <v>7047</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1">
+      <c r="N23" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O23" s="1"/>
@@ -2280,65 +2026,65 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="1">
-        <v>1</v>
-      </c>
-      <c r="U23" s="1">
+      <c r="T23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y23" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>402</v>
-      </c>
-      <c r="E24" s="1">
-        <v>201</v>
-      </c>
-      <c r="F24" s="1">
-        <v>301</v>
-      </c>
-      <c r="G24" s="1">
-        <v>502</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="C24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H24" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="1" t="n">
         <v>7047</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1">
+      <c r="N24" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O24" s="1"/>
@@ -2346,65 +2092,65 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="1">
-        <v>1</v>
-      </c>
-      <c r="U24" s="1">
+      <c r="T24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W24" s="1">
+      <c r="W24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Y24" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>402</v>
-      </c>
-      <c r="E25" s="1">
-        <v>201</v>
-      </c>
-      <c r="F25" s="1">
-        <v>301</v>
-      </c>
-      <c r="G25" s="1">
-        <v>502</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="C25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H25" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="1" t="n">
         <v>7047</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1">
+      <c r="N25" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O25" s="1"/>
@@ -2412,65 +2158,65 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="1">
-        <v>1</v>
-      </c>
-      <c r="U25" s="1">
+      <c r="T25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W25" s="1">
+      <c r="W25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y25" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>402</v>
-      </c>
-      <c r="E26" s="1">
-        <v>201</v>
-      </c>
-      <c r="F26" s="1">
-        <v>301</v>
-      </c>
-      <c r="G26" s="1">
-        <v>502</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="C26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H26" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="1" t="n">
         <v>7039</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1">
+      <c r="N26" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O26" s="1"/>
@@ -2478,65 +2224,65 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="1">
-        <v>1</v>
-      </c>
-      <c r="U26" s="1">
+      <c r="T26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Y26" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>402</v>
-      </c>
-      <c r="E27" s="1">
-        <v>201</v>
-      </c>
-      <c r="F27" s="1">
-        <v>301</v>
-      </c>
-      <c r="G27" s="1">
-        <v>502</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="C27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H27" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="1" t="n">
         <v>7039</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1">
+      <c r="N27" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O27" s="1"/>
@@ -2544,65 +2290,65 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="1">
-        <v>1</v>
-      </c>
-      <c r="U27" s="1">
+      <c r="T27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W27" s="1">
+      <c r="W27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Y27" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>402</v>
-      </c>
-      <c r="E28" s="1">
-        <v>201</v>
-      </c>
-      <c r="F28" s="1">
-        <v>301</v>
-      </c>
-      <c r="G28" s="1">
-        <v>502</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="C28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H28" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="1" t="n">
         <v>7039</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1">
+      <c r="N28" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O28" s="1"/>
@@ -2610,65 +2356,65 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="1">
-        <v>1</v>
-      </c>
-      <c r="U28" s="1">
+      <c r="T28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W28" s="1">
+      <c r="W28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Y28" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>402</v>
-      </c>
-      <c r="E29" s="1">
-        <v>201</v>
-      </c>
-      <c r="F29" s="1">
-        <v>301</v>
-      </c>
-      <c r="G29" s="1">
-        <v>502</v>
-      </c>
-      <c r="H29" s="1">
+      <c r="C29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H29" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="1" t="n">
         <v>7039</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1">
+      <c r="N29" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O29" s="1"/>
@@ -2676,65 +2422,65 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="1">
-        <v>1</v>
-      </c>
-      <c r="U29" s="1">
+      <c r="T29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W29" s="1">
+      <c r="W29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Y29" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>402</v>
-      </c>
-      <c r="E30" s="1">
-        <v>201</v>
-      </c>
-      <c r="F30" s="1">
-        <v>301</v>
-      </c>
-      <c r="G30" s="1">
-        <v>502</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="C30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H30" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="1" t="n">
         <v>7039</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1">
+      <c r="N30" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O30" s="1"/>
@@ -2742,65 +2488,65 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="1">
-        <v>1</v>
-      </c>
-      <c r="U30" s="1">
+      <c r="T30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W30" s="1">
+      <c r="W30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Y30" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>402</v>
-      </c>
-      <c r="E31" s="1">
-        <v>201</v>
-      </c>
-      <c r="F31" s="1">
-        <v>301</v>
-      </c>
-      <c r="G31" s="1">
-        <v>502</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="C31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H31" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="1" t="n">
         <v>7039</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1">
+      <c r="N31" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O31" s="1"/>
@@ -2808,65 +2554,65 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="1">
-        <v>1</v>
-      </c>
-      <c r="U31" s="1">
+      <c r="T31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W31" s="1">
+      <c r="W31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Y31" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>402</v>
-      </c>
-      <c r="E32" s="1">
-        <v>201</v>
-      </c>
-      <c r="F32" s="1">
-        <v>301</v>
-      </c>
-      <c r="G32" s="1">
-        <v>502</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="C32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H32" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="1" t="n">
         <v>7003</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1">
+      <c r="N32" s="1" t="n">
         <v>3</v>
       </c>
       <c r="O32" s="1"/>
@@ -2874,65 +2620,65 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="1">
-        <v>1</v>
-      </c>
-      <c r="U32" s="1">
+      <c r="T32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W32" s="1">
+      <c r="W32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="Y32" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>402</v>
-      </c>
-      <c r="E33" s="1">
-        <v>201</v>
-      </c>
-      <c r="F33" s="1">
-        <v>301</v>
-      </c>
-      <c r="G33" s="1">
-        <v>502</v>
-      </c>
-      <c r="H33" s="1">
+      <c r="C33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H33" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="1" t="n">
         <v>7003</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1">
+      <c r="N33" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O33" s="1"/>
@@ -2940,65 +2686,65 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="1">
-        <v>1</v>
-      </c>
-      <c r="U33" s="1">
+      <c r="T33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W33" s="1">
+      <c r="W33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="Y33" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>402</v>
-      </c>
-      <c r="E34" s="1">
-        <v>201</v>
-      </c>
-      <c r="F34" s="1">
-        <v>301</v>
-      </c>
-      <c r="G34" s="1">
-        <v>502</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="C34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H34" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="1" t="n">
         <v>7003</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1">
+      <c r="N34" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O34" s="1"/>
@@ -3006,65 +2752,65 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="1">
-        <v>1</v>
-      </c>
-      <c r="U34" s="1">
+      <c r="T34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W34" s="1">
+      <c r="W34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="Y34" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>402</v>
-      </c>
-      <c r="E35" s="1">
-        <v>201</v>
-      </c>
-      <c r="F35" s="1">
-        <v>301</v>
-      </c>
-      <c r="G35" s="1">
-        <v>502</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="C35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H35" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="1" t="n">
         <v>7003</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="1">
+      <c r="N35" s="1" t="n">
         <v>5</v>
       </c>
       <c r="O35" s="1"/>
@@ -3072,65 +2818,65 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="1">
-        <v>1</v>
-      </c>
-      <c r="U35" s="1">
+      <c r="T35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W35" s="1">
+      <c r="W35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="Y35" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>402</v>
-      </c>
-      <c r="E36" s="1">
-        <v>201</v>
-      </c>
-      <c r="F36" s="1">
-        <v>301</v>
-      </c>
-      <c r="G36" s="1">
-        <v>502</v>
-      </c>
-      <c r="H36" s="1">
+      <c r="C36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H36" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="1" t="n">
         <v>7003</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1">
+      <c r="N36" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O36" s="1"/>
@@ -3138,65 +2884,65 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="1">
-        <v>1</v>
-      </c>
-      <c r="U36" s="1">
+      <c r="T36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W36" s="1">
+      <c r="W36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y36" s="1">
+      <c r="Y36" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>402</v>
-      </c>
-      <c r="E37" s="1">
-        <v>201</v>
-      </c>
-      <c r="F37" s="1">
-        <v>301</v>
-      </c>
-      <c r="G37" s="1">
-        <v>502</v>
-      </c>
-      <c r="H37" s="1">
+      <c r="C37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H37" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="1" t="n">
         <v>7003</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1">
+      <c r="N37" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O37" s="1"/>
@@ -3204,65 +2950,65 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
-      <c r="T37" s="1">
-        <v>1</v>
-      </c>
-      <c r="U37" s="1">
+      <c r="T37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W37" s="1">
+      <c r="W37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y37" s="1">
+      <c r="Y37" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>402</v>
-      </c>
-      <c r="E38" s="1">
-        <v>201</v>
-      </c>
-      <c r="F38" s="1">
-        <v>301</v>
-      </c>
-      <c r="G38" s="1">
-        <v>502</v>
-      </c>
-      <c r="H38" s="1">
+      <c r="C38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H38" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="1" t="n">
         <v>7108</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1">
+      <c r="N38" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O38" s="1"/>
@@ -3270,65 +3016,65 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-      <c r="T38" s="1">
-        <v>1</v>
-      </c>
-      <c r="U38" s="1">
+      <c r="T38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W38" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>402</v>
-      </c>
-      <c r="E39" s="1">
-        <v>201</v>
-      </c>
-      <c r="F39" s="1">
-        <v>301</v>
-      </c>
-      <c r="G39" s="1">
-        <v>502</v>
-      </c>
-      <c r="H39" s="1">
+      <c r="C39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H39" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="1" t="n">
         <v>7108</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="1">
+      <c r="N39" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O39" s="1"/>
@@ -3336,65 +3082,65 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="1">
-        <v>1</v>
-      </c>
-      <c r="U39" s="1">
+      <c r="T39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W39" s="1">
+      <c r="W39" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="Y39" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>402</v>
-      </c>
-      <c r="E40" s="1">
-        <v>201</v>
-      </c>
-      <c r="F40" s="1">
-        <v>301</v>
-      </c>
-      <c r="G40" s="1">
-        <v>502</v>
-      </c>
-      <c r="H40" s="1">
+      <c r="C40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H40" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="1" t="n">
         <v>7108</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1">
+      <c r="N40" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O40" s="1"/>
@@ -3402,65 +3148,65 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-      <c r="T40" s="1">
-        <v>1</v>
-      </c>
-      <c r="U40" s="1">
+      <c r="T40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W40" s="1">
+      <c r="W40" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="Y40" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>402</v>
-      </c>
-      <c r="E41" s="1">
-        <v>201</v>
-      </c>
-      <c r="F41" s="1">
-        <v>301</v>
-      </c>
-      <c r="G41" s="1">
-        <v>502</v>
-      </c>
-      <c r="H41" s="1">
+      <c r="C41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H41" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="1" t="n">
         <v>7108</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1">
+      <c r="N41" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O41" s="1"/>
@@ -3468,65 +3214,65 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="1">
-        <v>1</v>
-      </c>
-      <c r="U41" s="1">
+      <c r="T41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W41" s="1">
+      <c r="W41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y41" s="1">
+      <c r="Y41" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z41" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>402</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="C42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E42" s="1" t="n">
         <v>201</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="1">
-        <v>502</v>
-      </c>
-      <c r="H42" s="1">
+        <v>76</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H42" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="1" t="n">
         <v>7108</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1">
+      <c r="N42" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O42" s="1"/>
@@ -3534,65 +3280,65 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-      <c r="T42" s="1">
-        <v>1</v>
-      </c>
-      <c r="U42" s="1">
+      <c r="T42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W42" s="1">
+      <c r="W42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y42" s="1">
+      <c r="Y42" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z42" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>402</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="C43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E43" s="1" t="n">
         <v>201</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G43" s="1">
-        <v>502</v>
-      </c>
-      <c r="H43" s="1">
+        <v>76</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H43" s="1" t="n">
         <v>675</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="1" t="n">
         <v>7108</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1">
+      <c r="N43" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O43" s="1"/>
@@ -3600,65 +3346,65 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
-      <c r="T43" s="1">
-        <v>1</v>
-      </c>
-      <c r="U43" s="1">
+      <c r="T43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W43" s="1">
+      <c r="W43" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y43" s="1">
+      <c r="Y43" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z43" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
-        <v>402</v>
-      </c>
-      <c r="E44" s="1">
-        <v>201</v>
-      </c>
-      <c r="F44" s="1">
-        <v>301</v>
-      </c>
-      <c r="G44" s="1">
-        <v>502</v>
-      </c>
-      <c r="H44" s="1">
+      <c r="C44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H44" s="1" t="n">
         <v>676</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="1" t="n">
         <v>7099</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="1">
+      <c r="N44" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O44" s="1"/>
@@ -3666,65 +3412,65 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-      <c r="T44" s="1">
-        <v>1</v>
-      </c>
-      <c r="U44" s="1">
+      <c r="T44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W44" s="1">
+      <c r="W44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y44" s="1">
+      <c r="Y44" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z44" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
-        <v>402</v>
-      </c>
-      <c r="E45" s="1">
-        <v>201</v>
-      </c>
-      <c r="F45" s="1">
-        <v>301</v>
-      </c>
-      <c r="G45" s="1">
-        <v>502</v>
-      </c>
-      <c r="H45" s="1">
+      <c r="C45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H45" s="1" t="n">
         <v>676</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="1" t="n">
         <v>7099</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1">
+      <c r="N45" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O45" s="1"/>
@@ -3732,65 +3478,65 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
-      <c r="T45" s="1">
-        <v>1</v>
-      </c>
-      <c r="U45" s="1">
+      <c r="T45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W45" s="1">
+      <c r="W45" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y45" s="1">
+      <c r="Y45" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z45" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>402</v>
-      </c>
-      <c r="E46" s="1">
-        <v>201</v>
-      </c>
-      <c r="F46" s="1">
-        <v>301</v>
-      </c>
-      <c r="G46" s="1">
-        <v>502</v>
-      </c>
-      <c r="H46" s="1">
+      <c r="C46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H46" s="1" t="n">
         <v>676</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="1" t="n">
         <v>7099</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1">
+      <c r="N46" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O46" s="1"/>
@@ -3798,65 +3544,65 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
-      <c r="T46" s="1">
-        <v>1</v>
-      </c>
-      <c r="U46" s="1">
+      <c r="T46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W46" s="1">
+      <c r="W46" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y46" s="1">
+      <c r="Y46" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>402</v>
-      </c>
-      <c r="E47" s="1">
-        <v>201</v>
-      </c>
-      <c r="F47" s="1">
-        <v>301</v>
-      </c>
-      <c r="G47" s="1">
-        <v>502</v>
-      </c>
-      <c r="H47" s="1">
+      <c r="C47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H47" s="1" t="n">
         <v>676</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="1" t="n">
         <v>7099</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1">
+      <c r="N47" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O47" s="1"/>
@@ -3864,65 +3610,65 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
-      <c r="T47" s="1">
-        <v>1</v>
-      </c>
-      <c r="U47" s="1">
+      <c r="T47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W47" s="1">
+      <c r="W47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y47" s="1">
+      <c r="Y47" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z47" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1">
-        <v>402</v>
-      </c>
-      <c r="E48" s="1">
-        <v>201</v>
-      </c>
-      <c r="F48" s="1">
-        <v>301</v>
-      </c>
-      <c r="G48" s="1">
-        <v>502</v>
-      </c>
-      <c r="H48" s="1">
+      <c r="C48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H48" s="1" t="n">
         <v>676</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="1" t="n">
         <v>7099</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="1">
+      <c r="N48" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O48" s="1"/>
@@ -3930,65 +3676,65 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
-      <c r="T48" s="1">
-        <v>1</v>
-      </c>
-      <c r="U48" s="1">
+      <c r="T48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W48" s="1">
+      <c r="W48" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y48" s="1">
+      <c r="Y48" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z48" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1">
-        <v>402</v>
-      </c>
-      <c r="E49" s="1">
-        <v>201</v>
-      </c>
-      <c r="F49" s="1">
-        <v>301</v>
-      </c>
-      <c r="G49" s="1">
-        <v>502</v>
-      </c>
-      <c r="H49" s="1">
+      <c r="C49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H49" s="1" t="n">
         <v>676</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="1" t="n">
         <v>7099</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1">
+      <c r="N49" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O49" s="1"/>
@@ -3996,65 +3742,65 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
-      <c r="T49" s="1">
-        <v>1</v>
-      </c>
-      <c r="U49" s="1">
+      <c r="T49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W49" s="1">
+      <c r="W49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y49" s="1">
+      <c r="Y49" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z49" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>402</v>
-      </c>
-      <c r="E50" s="1">
-        <v>201</v>
-      </c>
-      <c r="F50" s="1">
-        <v>301</v>
-      </c>
-      <c r="G50" s="1">
-        <v>502</v>
-      </c>
-      <c r="H50" s="1">
+      <c r="C50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H50" s="1" t="n">
         <v>677</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="1" t="n">
         <v>7099</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="1">
+      <c r="N50" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O50" s="1"/>
@@ -4062,65 +3808,65 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
-      <c r="T50" s="1">
-        <v>1</v>
-      </c>
-      <c r="U50" s="1">
+      <c r="T50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W50" s="1">
+      <c r="W50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y50" s="1">
+      <c r="Y50" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z50" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
-        <v>402</v>
-      </c>
-      <c r="E51" s="1">
-        <v>201</v>
-      </c>
-      <c r="F51" s="1">
-        <v>301</v>
-      </c>
-      <c r="G51" s="1">
-        <v>502</v>
-      </c>
-      <c r="H51" s="1">
+      <c r="C51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H51" s="1" t="n">
         <v>677</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="1" t="n">
         <v>7099</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1">
+      <c r="N51" s="1" t="n">
         <v>6</v>
       </c>
       <c r="O51" s="1"/>
@@ -4128,65 +3874,65 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
-      <c r="T51" s="1">
-        <v>1</v>
-      </c>
-      <c r="U51" s="1">
+      <c r="T51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W51" s="1">
+      <c r="W51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y51" s="1">
+      <c r="Y51" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z51" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>402</v>
-      </c>
-      <c r="E52" s="1">
-        <v>201</v>
-      </c>
-      <c r="F52" s="1">
-        <v>301</v>
-      </c>
-      <c r="G52" s="1">
-        <v>502</v>
-      </c>
-      <c r="H52" s="1">
+      <c r="C52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H52" s="1" t="n">
         <v>677</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="1" t="n">
         <v>7099</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="1">
+      <c r="N52" s="1" t="n">
         <v>6</v>
       </c>
       <c r="O52" s="1"/>
@@ -4194,65 +3940,65 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
-      <c r="T52" s="1">
-        <v>1</v>
-      </c>
-      <c r="U52" s="1">
+      <c r="T52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W52" s="1">
+      <c r="W52" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y52" s="1">
+      <c r="Y52" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z52" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1">
-        <v>402</v>
-      </c>
-      <c r="E53" s="1">
-        <v>201</v>
-      </c>
-      <c r="F53" s="1">
-        <v>301</v>
-      </c>
-      <c r="G53" s="1">
-        <v>502</v>
-      </c>
-      <c r="H53" s="1">
+      <c r="C53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H53" s="1" t="n">
         <v>677</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="1" t="n">
         <v>7099</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="1">
+      <c r="N53" s="1" t="n">
         <v>6</v>
       </c>
       <c r="O53" s="1"/>
@@ -4260,65 +4006,65 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
-      <c r="T53" s="1">
-        <v>1</v>
-      </c>
-      <c r="U53" s="1">
+      <c r="T53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W53" s="1">
+      <c r="W53" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y53" s="1">
+      <c r="Y53" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z53" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1">
-        <v>402</v>
-      </c>
-      <c r="E54" s="1">
-        <v>201</v>
-      </c>
-      <c r="F54" s="1">
-        <v>301</v>
-      </c>
-      <c r="G54" s="1">
-        <v>502</v>
-      </c>
-      <c r="H54" s="1">
+      <c r="C54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H54" s="1" t="n">
         <v>677</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="1" t="n">
         <v>7099</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="1">
+      <c r="N54" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O54" s="1"/>
@@ -4326,65 +4072,65 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
-      <c r="T54" s="1">
-        <v>1</v>
-      </c>
-      <c r="U54" s="1">
+      <c r="T54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W54" s="1">
+      <c r="W54" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y54" s="1">
+      <c r="Y54" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z54" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1">
-        <v>402</v>
-      </c>
-      <c r="E55" s="1">
-        <v>201</v>
-      </c>
-      <c r="F55" s="1">
-        <v>301</v>
-      </c>
-      <c r="G55" s="1">
-        <v>502</v>
-      </c>
-      <c r="H55" s="1">
+      <c r="C55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H55" s="1" t="n">
         <v>677</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="1" t="n">
         <v>7099</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-      <c r="N55" s="1">
+      <c r="N55" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O55" s="1"/>
@@ -4392,65 +4138,65 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
-      <c r="T55" s="1">
-        <v>1</v>
-      </c>
-      <c r="U55" s="1">
+      <c r="T55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W55" s="1">
+      <c r="W55" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X55" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y55" s="1">
+      <c r="Y55" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z55" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1">
-        <v>402</v>
-      </c>
-      <c r="E56" s="1">
-        <v>201</v>
-      </c>
-      <c r="F56" s="1">
-        <v>301</v>
-      </c>
-      <c r="G56" s="1">
-        <v>502</v>
-      </c>
-      <c r="H56" s="1">
+      <c r="C56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H56" s="1" t="n">
         <v>678</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="1" t="n">
         <v>7047</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="1">
+      <c r="N56" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O56" s="1"/>
@@ -4458,65 +4204,65 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-      <c r="T56" s="1">
-        <v>1</v>
-      </c>
-      <c r="U56" s="1">
+      <c r="T56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W56" s="1">
+      <c r="W56" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y56" s="1">
+      <c r="Y56" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z56" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1">
-        <v>402</v>
-      </c>
-      <c r="E57" s="1">
-        <v>201</v>
-      </c>
-      <c r="F57" s="1">
-        <v>301</v>
-      </c>
-      <c r="G57" s="1">
-        <v>502</v>
-      </c>
-      <c r="H57" s="1">
+      <c r="C57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H57" s="1" t="n">
         <v>678</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="1" t="n">
         <v>7047</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="1">
+      <c r="N57" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O57" s="1"/>
@@ -4524,65 +4270,65 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
-      <c r="T57" s="1">
-        <v>1</v>
-      </c>
-      <c r="U57" s="1">
+      <c r="T57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W57" s="1">
+      <c r="W57" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y57" s="1">
+      <c r="Y57" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z57" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
-        <v>402</v>
-      </c>
-      <c r="E58" s="1">
-        <v>201</v>
-      </c>
-      <c r="F58" s="1">
-        <v>301</v>
-      </c>
-      <c r="G58" s="1">
-        <v>502</v>
-      </c>
-      <c r="H58" s="1">
+      <c r="C58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H58" s="1" t="n">
         <v>678</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="1" t="n">
         <v>7047</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="1">
+      <c r="N58" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O58" s="1"/>
@@ -4590,65 +4336,65 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="1">
-        <v>1</v>
-      </c>
-      <c r="U58" s="1">
+      <c r="T58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U58" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W58" s="1">
+      <c r="W58" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y58" s="1">
+      <c r="Y58" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z58" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1">
-        <v>402</v>
-      </c>
-      <c r="E59" s="1">
-        <v>201</v>
-      </c>
-      <c r="F59" s="1">
-        <v>301</v>
-      </c>
-      <c r="G59" s="1">
-        <v>502</v>
-      </c>
-      <c r="H59" s="1">
+      <c r="C59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H59" s="1" t="n">
         <v>678</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="1" t="n">
         <v>7047</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="1">
+      <c r="N59" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O59" s="1"/>
@@ -4656,65 +4402,65 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
-      <c r="T59" s="1">
-        <v>1</v>
-      </c>
-      <c r="U59" s="1">
+      <c r="T59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W59" s="1">
+      <c r="W59" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y59" s="1">
+      <c r="Y59" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z59" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <v>402</v>
-      </c>
-      <c r="E60" s="1">
-        <v>201</v>
-      </c>
-      <c r="F60" s="1">
-        <v>301</v>
-      </c>
-      <c r="G60" s="1">
-        <v>502</v>
-      </c>
-      <c r="H60" s="1">
+      <c r="C60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H60" s="1" t="n">
         <v>678</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="1" t="n">
         <v>7047</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="1">
+      <c r="N60" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O60" s="1"/>
@@ -4722,65 +4468,65 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="1">
-        <v>1</v>
-      </c>
-      <c r="U60" s="1">
+      <c r="T60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V60" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W60" s="1">
+      <c r="W60" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y60" s="1">
+      <c r="Y60" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z60" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1">
-        <v>402</v>
-      </c>
-      <c r="E61" s="1">
-        <v>201</v>
-      </c>
-      <c r="F61" s="1">
-        <v>301</v>
-      </c>
-      <c r="G61" s="1">
-        <v>502</v>
-      </c>
-      <c r="H61" s="1">
+      <c r="C61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H61" s="1" t="n">
         <v>678</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="1" t="n">
         <v>7047</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="1">
+      <c r="N61" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O61" s="1"/>
@@ -4788,65 +4534,65 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
-      <c r="T61" s="1">
-        <v>1</v>
-      </c>
-      <c r="U61" s="1">
+      <c r="T61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V61" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W61" s="1">
+      <c r="W61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y61" s="1">
+      <c r="Y61" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z61" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1">
-        <v>402</v>
-      </c>
-      <c r="E62" s="1">
-        <v>201</v>
-      </c>
-      <c r="F62" s="1">
-        <v>301</v>
-      </c>
-      <c r="G62" s="1">
-        <v>502</v>
-      </c>
-      <c r="H62" s="1">
+      <c r="C62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H62" s="1" t="n">
         <v>678</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="1" t="n">
         <v>7158</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="1">
+      <c r="N62" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O62" s="1"/>
@@ -4854,65 +4600,65 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
-      <c r="T62" s="1">
-        <v>1</v>
-      </c>
-      <c r="U62" s="1">
+      <c r="T62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V62" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W62" s="1">
+      <c r="W62" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y62" s="1">
+      <c r="Y62" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z62" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <v>402</v>
-      </c>
-      <c r="E63" s="1">
-        <v>201</v>
-      </c>
-      <c r="F63" s="1">
-        <v>301</v>
-      </c>
-      <c r="G63" s="1">
-        <v>502</v>
-      </c>
-      <c r="H63" s="1">
+      <c r="C63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H63" s="1" t="n">
         <v>678</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="1" t="n">
         <v>7158</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="N63" s="1">
+      <c r="N63" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O63" s="1"/>
@@ -4920,65 +4666,65 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
-      <c r="T63" s="1">
-        <v>1</v>
-      </c>
-      <c r="U63" s="1">
+      <c r="T63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W63" s="1">
+      <c r="W63" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X63" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y63" s="1">
+      <c r="Y63" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z63" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1">
-        <v>402</v>
-      </c>
-      <c r="E64" s="1">
-        <v>201</v>
-      </c>
-      <c r="F64" s="1">
-        <v>301</v>
-      </c>
-      <c r="G64" s="1">
-        <v>502</v>
-      </c>
-      <c r="H64" s="1">
+      <c r="C64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H64" s="1" t="n">
         <v>678</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="1" t="n">
         <v>7158</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-      <c r="N64" s="1">
+      <c r="N64" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O64" s="1"/>
@@ -4986,65 +4732,65 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
-      <c r="T64" s="1">
-        <v>1</v>
-      </c>
-      <c r="U64" s="1">
+      <c r="T64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W64" s="1">
+      <c r="W64" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X64" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y64" s="1">
+      <c r="Y64" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z64" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1">
-        <v>402</v>
-      </c>
-      <c r="E65" s="1">
-        <v>201</v>
-      </c>
-      <c r="F65" s="1">
-        <v>301</v>
-      </c>
-      <c r="G65" s="1">
-        <v>502</v>
-      </c>
-      <c r="H65" s="1">
+      <c r="C65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H65" s="1" t="n">
         <v>678</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="1" t="n">
         <v>7158</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="1">
+      <c r="N65" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O65" s="1"/>
@@ -5052,65 +4798,65 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
-      <c r="T65" s="1">
-        <v>1</v>
-      </c>
-      <c r="U65" s="1">
+      <c r="T65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U65" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W65" s="1">
+      <c r="W65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y65" s="1">
+      <c r="Y65" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z65" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
-        <v>402</v>
-      </c>
-      <c r="E66" s="1">
-        <v>201</v>
-      </c>
-      <c r="F66" s="1">
-        <v>301</v>
-      </c>
-      <c r="G66" s="1">
-        <v>502</v>
-      </c>
-      <c r="H66" s="1">
+      <c r="C66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H66" s="1" t="n">
         <v>678</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="1" t="n">
         <v>7158</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="1">
+      <c r="N66" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O66" s="1"/>
@@ -5118,65 +4864,65 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
-      <c r="T66" s="1">
-        <v>1</v>
-      </c>
-      <c r="U66" s="1">
+      <c r="T66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U66" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W66" s="1">
+      <c r="W66" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y66" s="1">
+      <c r="Y66" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z66" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1">
-        <v>402</v>
-      </c>
-      <c r="E67" s="1">
-        <v>201</v>
-      </c>
-      <c r="F67" s="1">
-        <v>301</v>
-      </c>
-      <c r="G67" s="1">
-        <v>502</v>
-      </c>
-      <c r="H67" s="1">
+      <c r="C67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H67" s="1" t="n">
         <v>678</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="1" t="n">
         <v>7158</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K67" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-      <c r="N67" s="1">
+      <c r="N67" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O67" s="1"/>
@@ -5184,65 +4930,65 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
-      <c r="T67" s="1">
-        <v>1</v>
-      </c>
-      <c r="U67" s="1">
+      <c r="T67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U67" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W67" s="1">
+      <c r="W67" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y67" s="1">
+      <c r="Y67" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z67" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="C68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="n">
         <v>401</v>
       </c>
-      <c r="E68" s="1">
-        <v>201</v>
-      </c>
-      <c r="F68" s="1">
-        <v>301</v>
-      </c>
-      <c r="G68" s="1">
-        <v>502</v>
-      </c>
-      <c r="H68" s="1">
+      <c r="E68" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H68" s="1" t="n">
         <v>641</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="1" t="n">
         <v>7172</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K68" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-      <c r="N68" s="1">
+      <c r="N68" s="1" t="n">
         <v>6</v>
       </c>
       <c r="O68" s="1"/>
@@ -5250,65 +4996,65 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
-      <c r="T68" s="1">
-        <v>1</v>
-      </c>
-      <c r="U68" s="1">
+      <c r="T68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W68" s="1">
+      <c r="W68" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X68" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y68" s="1">
+      <c r="Y68" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z68" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="C69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="n">
         <v>401</v>
       </c>
-      <c r="E69" s="1">
-        <v>201</v>
-      </c>
-      <c r="F69" s="1">
-        <v>301</v>
-      </c>
-      <c r="G69" s="1">
-        <v>502</v>
-      </c>
-      <c r="H69" s="1">
+      <c r="E69" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H69" s="1" t="n">
         <v>641</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="1" t="n">
         <v>7172</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K69" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="1">
+      <c r="N69" s="1" t="n">
         <v>6</v>
       </c>
       <c r="O69" s="1"/>
@@ -5316,65 +5062,65 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
-      <c r="T69" s="1">
-        <v>1</v>
-      </c>
-      <c r="U69" s="1">
+      <c r="T69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U69" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V69" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W69" s="1">
+      <c r="W69" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X69" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y69" s="1">
+      <c r="Y69" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z69" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="C70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="n">
         <v>401</v>
       </c>
-      <c r="E70" s="1">
-        <v>201</v>
-      </c>
-      <c r="F70" s="1">
-        <v>301</v>
-      </c>
-      <c r="G70" s="1">
-        <v>502</v>
-      </c>
-      <c r="H70" s="1">
+      <c r="E70" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H70" s="1" t="n">
         <v>641</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="1" t="n">
         <v>7172</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K70" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
-      <c r="N70" s="1">
+      <c r="N70" s="1" t="n">
         <v>6</v>
       </c>
       <c r="O70" s="1"/>
@@ -5382,65 +5128,65 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
-      <c r="T70" s="1">
-        <v>1</v>
-      </c>
-      <c r="U70" s="1">
+      <c r="T70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U70" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V70" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W70" s="1">
+      <c r="W70" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X70" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y70" s="1">
+      <c r="Y70" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z70" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="C71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="n">
         <v>401</v>
       </c>
-      <c r="E71" s="1">
-        <v>201</v>
-      </c>
-      <c r="F71" s="1">
-        <v>301</v>
-      </c>
-      <c r="G71" s="1">
-        <v>502</v>
-      </c>
-      <c r="H71" s="1">
+      <c r="E71" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H71" s="1" t="n">
         <v>641</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="1" t="n">
         <v>7172</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
-      <c r="N71" s="1">
+      <c r="N71" s="1" t="n">
         <v>6</v>
       </c>
       <c r="O71" s="1"/>
@@ -5448,65 +5194,65 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
-      <c r="T71" s="1">
-        <v>1</v>
-      </c>
-      <c r="U71" s="1">
+      <c r="T71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U71" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V71" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W71" s="1">
+      <c r="W71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y71" s="1">
+      <c r="Y71" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z71" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1">
+      <c r="C72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="n">
         <v>401</v>
       </c>
-      <c r="E72" s="1">
-        <v>201</v>
-      </c>
-      <c r="F72" s="1">
-        <v>301</v>
-      </c>
-      <c r="G72" s="1">
-        <v>502</v>
-      </c>
-      <c r="H72" s="1">
+      <c r="E72" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H72" s="1" t="n">
         <v>641</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="1" t="n">
         <v>7172</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
-      <c r="N72" s="1">
+      <c r="N72" s="1" t="n">
         <v>6</v>
       </c>
       <c r="O72" s="1"/>
@@ -5514,65 +5260,65 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
-      <c r="T72" s="1">
-        <v>1</v>
-      </c>
-      <c r="U72" s="1">
+      <c r="T72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U72" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V72" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W72" s="1">
+      <c r="W72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X72" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y72" s="1">
+      <c r="Y72" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z72" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="C73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="n">
         <v>401</v>
       </c>
-      <c r="E73" s="1">
-        <v>201</v>
-      </c>
-      <c r="F73" s="1">
-        <v>301</v>
-      </c>
-      <c r="G73" s="1">
-        <v>502</v>
-      </c>
-      <c r="H73" s="1">
+      <c r="E73" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="H73" s="1" t="n">
         <v>641</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="1" t="n">
         <v>7172</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K73" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-      <c r="N73" s="1">
+      <c r="N73" s="1" t="n">
         <v>6</v>
       </c>
       <c r="O73" s="1"/>
@@ -5580,65 +5326,65 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
-      <c r="T73" s="1">
-        <v>1</v>
-      </c>
-      <c r="U73" s="1">
+      <c r="T73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U73" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V73" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W73" s="1">
+      <c r="W73" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y73" s="1">
+      <c r="Y73" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z73" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1">
-        <v>402</v>
-      </c>
-      <c r="E74" s="1">
-        <v>201</v>
-      </c>
-      <c r="F74" s="1">
-        <v>301</v>
-      </c>
-      <c r="G74" s="1">
+      <c r="C74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G74" s="1" t="n">
         <v>501</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="1" t="n">
         <v>7172</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="K74" s="1">
+      <c r="K74" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
-      <c r="N74" s="1">
+      <c r="N74" s="1" t="n">
         <v>5</v>
       </c>
       <c r="O74" s="1"/>
@@ -5646,65 +5392,65 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
-      <c r="T74" s="1">
-        <v>1</v>
-      </c>
-      <c r="U74" s="1">
+      <c r="T74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U74" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V74" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W74" s="1">
+      <c r="W74" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X74" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y74" s="1">
+      <c r="Y74" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z74" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1">
-        <v>402</v>
-      </c>
-      <c r="E75" s="1">
-        <v>201</v>
-      </c>
-      <c r="F75" s="1">
-        <v>301</v>
-      </c>
-      <c r="G75" s="1">
+      <c r="C75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G75" s="1" t="n">
         <v>501</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="1" t="n">
         <v>7172</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K75" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-      <c r="N75" s="1">
+      <c r="N75" s="1" t="n">
         <v>10</v>
       </c>
       <c r="O75" s="1"/>
@@ -5712,65 +5458,65 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
-      <c r="T75" s="1">
-        <v>1</v>
-      </c>
-      <c r="U75" s="1">
+      <c r="T75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U75" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V75" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W75" s="1">
+      <c r="W75" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y75" s="1">
+      <c r="Y75" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z75" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1">
-        <v>402</v>
-      </c>
-      <c r="E76" s="1">
-        <v>201</v>
-      </c>
-      <c r="F76" s="1">
-        <v>301</v>
-      </c>
-      <c r="G76" s="1">
+      <c r="C76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G76" s="1" t="n">
         <v>501</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="1" t="n">
         <v>7172</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="K76" s="1">
+      <c r="K76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
-      <c r="N76" s="1">
+      <c r="N76" s="1" t="n">
         <v>10</v>
       </c>
       <c r="O76" s="1"/>
@@ -5778,65 +5524,65 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
-      <c r="T76" s="1">
-        <v>1</v>
-      </c>
-      <c r="U76" s="1">
+      <c r="T76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U76" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V76" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W76" s="1">
+      <c r="W76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X76" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y76" s="1">
+      <c r="Y76" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z76" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1">
-        <v>402</v>
-      </c>
-      <c r="E77" s="1">
-        <v>201</v>
-      </c>
-      <c r="F77" s="1">
-        <v>301</v>
-      </c>
-      <c r="G77" s="1">
+      <c r="C77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G77" s="1" t="n">
         <v>501</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="1" t="n">
         <v>7172</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="K77" s="1">
+      <c r="K77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
-      <c r="N77" s="1">
+      <c r="N77" s="1" t="n">
         <v>10</v>
       </c>
       <c r="O77" s="1"/>
@@ -5844,65 +5590,65 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
-      <c r="T77" s="1">
-        <v>1</v>
-      </c>
-      <c r="U77" s="1">
+      <c r="T77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U77" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V77" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W77" s="1">
+      <c r="W77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X77" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y77" s="1">
+      <c r="Y77" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z77" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
-      <c r="D78" s="1">
-        <v>402</v>
-      </c>
-      <c r="E78" s="1">
-        <v>201</v>
-      </c>
-      <c r="F78" s="1">
-        <v>301</v>
-      </c>
-      <c r="G78" s="1">
+      <c r="C78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G78" s="1" t="n">
         <v>501</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="1" t="n">
         <v>7172</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
-      <c r="N78" s="1">
+      <c r="N78" s="1" t="n">
         <v>10</v>
       </c>
       <c r="O78" s="1"/>
@@ -5910,65 +5656,65 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
-      <c r="T78" s="1">
-        <v>1</v>
-      </c>
-      <c r="U78" s="1">
+      <c r="T78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U78" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W78" s="1">
+      <c r="W78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X78" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y78" s="1">
+      <c r="Y78" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z78" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1">
-        <v>402</v>
-      </c>
-      <c r="E79" s="1">
-        <v>201</v>
-      </c>
-      <c r="F79" s="1">
-        <v>301</v>
-      </c>
-      <c r="G79" s="1">
+      <c r="C79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G79" s="1" t="n">
         <v>501</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="1" t="n">
         <v>7172</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J79" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="K79" s="1">
+      <c r="K79" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
-      <c r="N79" s="1">
+      <c r="N79" s="1" t="n">
         <v>10</v>
       </c>
       <c r="O79" s="1"/>
@@ -5976,65 +5722,65 @@
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
-      <c r="T79" s="1">
-        <v>1</v>
-      </c>
-      <c r="U79" s="1">
+      <c r="T79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U79" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V79" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W79" s="1">
+      <c r="W79" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y79" s="1">
+      <c r="Y79" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z79" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="1">
-        <v>402</v>
-      </c>
-      <c r="E80" s="1">
-        <v>201</v>
-      </c>
-      <c r="F80" s="1">
-        <v>301</v>
-      </c>
-      <c r="G80" s="1">
+      <c r="C80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="G80" s="1" t="n">
         <v>501</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="1" t="n">
         <v>7172</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J80" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="K80" s="1">
+      <c r="K80" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
-      <c r="N80" s="1">
+      <c r="N80" s="1" t="n">
         <v>5</v>
       </c>
       <c r="O80" s="1"/>
@@ -6042,22 +5788,22 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
-      <c r="T80" s="1">
-        <v>1</v>
-      </c>
-      <c r="U80" s="1">
+      <c r="T80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U80" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V80" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W80" s="1">
+      <c r="W80" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X80" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y80" s="1">
+      <c r="Y80" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z80" s="1" t="s">
@@ -6065,7 +5811,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>